--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
+    <sheet name="pruebas_parciales" sheetId="2" r:id="rId2"/>
+    <sheet name="informes escritos" sheetId="3" r:id="rId3"/>
+    <sheet name="investigacion_bibliografica" sheetId="4" r:id="rId4"/>
+    <sheet name="trabajo_autonomo" sheetId="5" r:id="rId5"/>
+    <sheet name="examen" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -109,12 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,22 +118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -146,7 +126,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -154,7 +134,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -177,7 +157,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -185,96 +165,336 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col min="3" max="3" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -288,274 +508,274 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="4" t="e">
-        <f aca="false">AVERAGE(D6:M6)*15/10</f>
+        <f t="shared" ref="N6:N24" si="0">AVERAGE(D6:M6)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="4" t="e">
-        <f aca="false">AVERAGE(D7:M7)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="4" t="e">
-        <f aca="false">AVERAGE(D8:M8)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="4" t="e">
-        <f aca="false">AVERAGE(D9:M9)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="4" t="e">
-        <f aca="false">AVERAGE(D10:M10)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="4" t="e">
-        <f aca="false">AVERAGE(D11:M11)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="4" t="e">
-        <f aca="false">AVERAGE(D12:M12)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="4" t="e">
-        <f aca="false">AVERAGE(D13:M13)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="4" t="e">
-        <f aca="false">AVERAGE(D14:M14)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="4" t="e">
-        <f aca="false">AVERAGE(D15:M15)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="4" t="e">
-        <f aca="false">AVERAGE(D16:M16)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="4" t="e">
-        <f aca="false">AVERAGE(D17:M17)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="4" t="e">
-        <f aca="false">AVERAGE(D18:M18)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="N19" s="4" t="e">
-        <f aca="false">AVERAGE(D19:M19)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="4" t="e">
-        <f aca="false">AVERAGE(D20:M20)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="4" t="e">
-        <f aca="false">AVERAGE(D21:M21)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f aca="false">AVERAGE(D22:M22)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f aca="false">AVERAGE(D23:M23)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f aca="false">AVERAGE(D24:M24)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -567,485 +787,471 @@
   <mergeCells count="1">
     <mergeCell ref="D4:M4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C5:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:H27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col min="4" max="4" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>95</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+      <c r="E11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+      <c r="E16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+      <c r="E17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>70</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>16</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>70</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>17</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>90</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>18</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>19</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>AVERAGE(E7:E26)</f>
+        <v>73.15789473684211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col min="5" max="5" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="4:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="n">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="n">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="n">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
         <v>17</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>18</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
         <v>19</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1056,212 +1262,204 @@
   <mergeCells count="1">
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>16</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>17</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>18</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>19</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1272,212 +1470,204 @@
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>17</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>18</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>19</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1488,40 +1678,32 @@
   <mergeCells count="1">
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1532,160 +1714,160 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>17</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>18</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>19</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1693,12 +1875,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
-    <sheet name="pruebas_parciales" sheetId="2" r:id="rId2"/>
-    <sheet name="informes escritos" sheetId="3" r:id="rId3"/>
-    <sheet name="investigacion_bibliografica" sheetId="4" r:id="rId4"/>
-    <sheet name="trabajo_autonomo" sheetId="5" r:id="rId5"/>
-    <sheet name="examen" sheetId="6" r:id="rId6"/>
+    <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -108,8 +109,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,11 +126,26 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -132,7 +153,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,7 +161,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -157,7 +178,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -165,42 +186,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -210,7 +275,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -219,314 +288,88 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,274 +383,274 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="3" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="4" t="e">
-        <f t="shared" ref="N6:N24" si="0">AVERAGE(D6:M6)*15/10</f>
+        <f aca="false">AVERAGE(D6:M6)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D7:M7)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D8:M8)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D9:M9)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D10:M10)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D11:M11)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D12:M12)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D13:M13)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D14:M14)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D15:M15)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D16:M16)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D17:M17)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D18:M18)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="N19" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D19:M19)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D20:M20)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D21:M21)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D22:M22)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D23:M23)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f aca="false">AVERAGE(D24:M24)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -819,405 +662,415 @@
   <mergeCells count="1">
     <mergeCell ref="D4:M4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C5:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="3:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G7" s="6">
-        <f>AVERAGE(E7,F7)</f>
+      <c r="G7" s="6" t="n">
+        <f aca="false">AVERAGE(E7,F7)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G26" si="0">AVERAGE(E8,F8)</f>
+      <c r="G8" s="6" t="n">
+        <f aca="false">AVERAGE(E8,F8)</f>
         <v>77.5</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
+      <c r="G9" s="6" t="n">
+        <f aca="false">AVERAGE(E9,F9)</f>
         <v>67.5</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
+      <c r="G10" s="6" t="n">
+        <f aca="false">AVERAGE(E10,F10)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
+      <c r="G11" s="6" t="n">
+        <f aca="false">AVERAGE(E11,F11)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
+      <c r="G12" s="6" t="n">
+        <f aca="false">AVERAGE(E12,F12)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(38,50)</f>
+      <c r="E13" s="0" t="n">
+        <f aca="false">AVERAGE(38,50)</f>
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
+      <c r="G13" s="6" t="n">
+        <f aca="false">AVERAGE(E13,F13)</f>
         <v>59.5</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
+      <c r="G14" s="6" t="n">
+        <f aca="false">AVERAGE(E14,F14)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
+      <c r="G15" s="6" t="n">
+        <f aca="false">AVERAGE(E15,F15)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
-        <f>(60+68)/2</f>
+      <c r="E16" s="0" t="n">
+        <f aca="false">(60+68)/2</f>
         <v>64</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
+      <c r="G16" s="6" t="n">
+        <f aca="false">AVERAGE(E16,F16)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
-        <f>(60+70)/2</f>
+      <c r="E17" s="0" t="n">
+        <f aca="false">(60+70)/2</f>
         <v>65</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
+      <c r="G17" s="6" t="n">
+        <f aca="false">AVERAGE(E17,F17)</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
+      <c r="G18" s="6" t="n">
+        <f aca="false">AVERAGE(E18,F18)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
+      <c r="G19" s="6" t="n">
+        <f aca="false">AVERAGE(E19,F19)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
+      <c r="G20" s="6" t="n">
+        <f aca="false">AVERAGE(E20,F20)</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
-        <f>(70+73)/2</f>
+      <c r="E21" s="6" t="n">
+        <f aca="false">(70+73)/2</f>
         <v>71.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
+      <c r="G21" s="6" t="n">
+        <f aca="false">AVERAGE(E21,F21)</f>
         <v>78.25</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
+      <c r="G22" s="6" t="n">
+        <f aca="false">AVERAGE(E22,F22)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
+      <c r="G23" s="6" t="n">
+        <f aca="false">AVERAGE(E23,F23)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
+      <c r="G24" s="6" t="n">
+        <f aca="false">AVERAGE(E24,F24)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
+      <c r="G25" s="6" t="n">
+        <f aca="false">AVERAGE(E25,F25)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
+      <c r="G26" s="6" t="n">
+        <f aca="false">AVERAGE(E26,F26)</f>
         <v>65</v>
       </c>
     </row>
@@ -1226,205 +1079,215 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:G26">
-    <cfRule type="top10" dxfId="0" priority="2" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" priority="2" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="10" text="" dxfId="0"/>
+    <cfRule type="top10" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="10" text="" dxfId="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="D5:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="42.140625"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="4:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="n">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1435,204 +1298,212 @@
   <mergeCells count="1">
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C5:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1643,204 +1514,212 @@
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1851,32 +1730,40 @@
   <mergeCells count="1">
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="42.140625"/>
-    <col min="5" max="1025" width="10.5703125"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1887,160 +1774,160 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2048,7 +1935,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -139,12 +139,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -165,6 +159,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -210,7 +210,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,15 +220,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +236,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,7 +244,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,7 +256,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -440,9 +440,11 @@
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="4" t="e">
+      <c r="N7" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,9 +454,11 @@
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="4" t="e">
+      <c r="N8" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,9 +468,11 @@
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="4" t="e">
+      <c r="N9" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,9 +482,11 @@
       <c r="C10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="4" t="e">
+      <c r="N10" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,9 +496,11 @@
       <c r="C11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="4" t="e">
+      <c r="N11" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,9 +510,11 @@
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="4" t="e">
+      <c r="N12" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,9 +524,11 @@
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="4" t="e">
+      <c r="N13" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,9 +538,11 @@
       <c r="C14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="4" t="e">
+      <c r="N14" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,9 +552,11 @@
       <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="4" t="e">
+      <c r="N15" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,9 +566,11 @@
       <c r="C16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="4" t="e">
+      <c r="N16" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,9 +580,11 @@
       <c r="C17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="4" t="e">
+      <c r="N17" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,9 +594,11 @@
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="N18" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,9 +608,11 @@
       <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="4" t="e">
+      <c r="N19" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,9 +622,11 @@
       <c r="C20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="4" t="e">
+      <c r="N20" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,9 +636,11 @@
       <c r="C21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="4" t="e">
+      <c r="N21" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,9 +650,11 @@
       <c r="C22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="4" t="e">
+      <c r="N22" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,9 +664,11 @@
       <c r="C23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="4" t="e">
+      <c r="N23" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,9 +678,11 @@
       <c r="C24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="4" t="e">
+      <c r="N24" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +716,7 @@
   <dimension ref="C5:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,11 +1031,11 @@
         <v>70</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G22" s="6" t="n">
         <f aca="false">AVERAGE(E22,F22)</f>
-        <v>35</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,11 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
   <si>
+    <t>Paint y 
+Calculadora</t>
+  </si>
+  <si>
+    <t>Zip y 
+PickPic</t>
+  </si>
+  <si>
+    <t>Winrar</t>
+  </si>
+  <si>
     <t>Alumnos</t>
   </si>
   <si>
@@ -52,6 +63,9 @@
     <t>HENRIQUEZ IBAÑEZ ALFONSO EDUARDO</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>LOJA LUCERO JESSICA CAROLINA</t>
   </si>
   <si>
@@ -97,7 +111,10 @@
     <t>Informes Escritos</t>
   </si>
   <si>
-    <t>Investigacion</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Investigación</t>
   </si>
   <si>
     <t>Trabajo_Autonomo</t>
@@ -115,7 +132,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +185,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +240,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,12 +249,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -241,6 +278,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,7 +301,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -356,17 +401,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:N25"/>
+  <dimension ref="B4:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4696356275304"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.48987854251012"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.06477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.39271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -375,329 +424,456 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM(D7:F7)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM(D8:F8)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <f aca="false">SUM(D9:F9)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM(D10:F10)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM(D11:F11)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM(D12:F12)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM(D13:F13)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM(D14:F14)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4" t="e">
-        <f aca="false">AVERAGE(D6:M6)*15/10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D7:M7)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D9:M9)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D10:M10)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D11:M11)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D12:M12)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D13:M13)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM(D15:F15)/3</f>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM(D16:F16)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D14:M14)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM(D17:F17)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <f aca="false">SUM(D18:F18)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D16:M16)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="C19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM(D19:F19)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D17:M17)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM(D20:F20)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="N18" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM(D21:F21)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="N19" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D19:M19)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM(D22:F22)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D20:M20)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="C23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM(D23:F23)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="C24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM(D24:F24)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="N22" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D22:M22)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="C25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM(D25:F25)/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N23" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D23:M23)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <f aca="false">AVERAGE(D24:M24)*15/10</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="4"/>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM(D26:F26)/3</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:M4"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -715,8 +891,8 @@
   </sheetPr>
   <dimension ref="C5:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,22 +904,22 @@
   <sheetData>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>80</v>
@@ -759,7 +935,7 @@
       <c r="F7" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">AVERAGE(E7,F7)</f>
         <v>75</v>
       </c>
@@ -769,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>75</v>
@@ -777,7 +953,7 @@
       <c r="F8" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="9" t="n">
         <f aca="false">AVERAGE(E8,F8)</f>
         <v>77.5</v>
       </c>
@@ -787,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>60</v>
@@ -795,7 +971,7 @@
       <c r="F9" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="9" t="n">
         <f aca="false">AVERAGE(E9,F9)</f>
         <v>67.5</v>
       </c>
@@ -805,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>95</v>
@@ -813,7 +989,7 @@
       <c r="F10" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">AVERAGE(E10,F10)</f>
         <v>87.5</v>
       </c>
@@ -823,17 +999,17 @@
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>55</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <f aca="false">AVERAGE(E11,F11)</f>
-        <v>27.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>100</v>
@@ -849,7 +1025,7 @@
       <c r="F12" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="9" t="n">
         <f aca="false">AVERAGE(E12,F12)</f>
         <v>90</v>
       </c>
@@ -859,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">AVERAGE(38,50)</f>
@@ -868,7 +1044,7 @@
       <c r="F13" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="9" t="n">
         <f aca="false">AVERAGE(E13,F13)</f>
         <v>59.5</v>
       </c>
@@ -878,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>70</v>
@@ -886,7 +1062,7 @@
       <c r="F14" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="9" t="n">
         <f aca="false">AVERAGE(E14,F14)</f>
         <v>82.5</v>
       </c>
@@ -896,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>65</v>
@@ -904,7 +1080,7 @@
       <c r="F15" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="9" t="n">
         <f aca="false">AVERAGE(E15,F15)</f>
         <v>75</v>
       </c>
@@ -914,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">(60+68)/2</f>
@@ -923,7 +1099,7 @@
       <c r="F16" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="9" t="n">
         <f aca="false">AVERAGE(E16,F16)</f>
         <v>72</v>
       </c>
@@ -933,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">(60+70)/2</f>
@@ -942,7 +1118,7 @@
       <c r="F17" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="9" t="n">
         <f aca="false">AVERAGE(E17,F17)</f>
         <v>72.5</v>
       </c>
@@ -952,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>70</v>
@@ -960,7 +1136,7 @@
       <c r="F18" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="9" t="n">
         <f aca="false">AVERAGE(E18,F18)</f>
         <v>75</v>
       </c>
@@ -970,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>90</v>
@@ -978,7 +1154,7 @@
       <c r="F19" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="9" t="n">
         <f aca="false">AVERAGE(E19,F19)</f>
         <v>87.5</v>
       </c>
@@ -988,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>100</v>
@@ -996,7 +1172,7 @@
       <c r="F20" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="9" t="n">
         <f aca="false">AVERAGE(E20,F20)</f>
         <v>97.5</v>
       </c>
@@ -1006,16 +1182,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <f aca="false">(70+73)/2</f>
         <v>71.5</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="9" t="n">
         <f aca="false">AVERAGE(E21,F21)</f>
         <v>78.25</v>
       </c>
@@ -1025,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>70</v>
@@ -1033,7 +1209,7 @@
       <c r="F22" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="9" t="n">
         <f aca="false">AVERAGE(E22,F22)</f>
         <v>72.5</v>
       </c>
@@ -1043,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>90</v>
@@ -1051,7 +1227,7 @@
       <c r="F23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="9" t="n">
         <f aca="false">AVERAGE(E23,F23)</f>
         <v>75</v>
       </c>
@@ -1061,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>95</v>
@@ -1069,7 +1245,7 @@
       <c r="F24" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="9" t="n">
         <f aca="false">AVERAGE(E24,F24)</f>
         <v>87.5</v>
       </c>
@@ -1079,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>80</v>
@@ -1087,7 +1263,7 @@
       <c r="F25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="9" t="n">
         <f aca="false">AVERAGE(E25,F25)</f>
         <v>80</v>
       </c>
@@ -1096,8 +1272,8 @@
       <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>45</v>
@@ -1105,7 +1281,7 @@
       <c r="F26" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="9" t="n">
         <f aca="false">AVERAGE(E26,F26)</f>
         <v>65</v>
       </c>
@@ -1133,206 +1309,259 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D5:I26"/>
+  <dimension ref="D5:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>22</v>
+      <c r="E26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1349,207 +1578,256 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:H26"/>
+  <dimension ref="C5:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">(81+95)/2</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <f aca="false">(81+100)/2</f>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:G5"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1567,8 +1845,8 @@
   </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1580,26 +1858,26 @@
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,7 +1997,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,7 +2021,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,15 +2029,15 @@
         <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
+      <c r="D25" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +2061,8 @@
   </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,27 +2073,30 @@
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +2104,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,7 +2115,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,7 +2126,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,7 +2137,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +2148,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +2159,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +2170,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,7 +2181,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +2192,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +2203,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +2214,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +2225,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,7 +2236,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +2247,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +2258,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,7 +2269,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,7 +2280,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,15 +2291,21 @@
         <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="proyecto" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="trabajo_autonomo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="examen" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
@@ -115,6 +116,42 @@
   </si>
   <si>
     <t>Investigación</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>Analisis Respuesta</t>
+  </si>
+  <si>
+    <t>Recomendación Respuesta</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Pie pagina</t>
+  </si>
+  <si>
+    <t>Punto restauracion</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Scandisk</t>
+  </si>
+  <si>
+    <t>Recomendaciones</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>Trabajo_Autonomo</t>
@@ -404,7 +441,7 @@
   <dimension ref="B4:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="H7:I8 E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,7 +450,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5708502024291"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.1417004048583"/>
   </cols>
@@ -892,7 +929,7 @@
   <dimension ref="C5:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="H7:I8 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1349,7 @@
   <dimension ref="D5:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="H7:I8 F14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,7 +1618,7 @@
   <dimension ref="C5:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="H7:I8 E14"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1843,10 +1880,372 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:N23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.7165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUM(C4:M4)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <f aca="false">SUM(C5:M5)</f>
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <f aca="false">SUM(C17:M17)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <f aca="false">SUM(C18:M18)</f>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="H7:I8 E7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1858,7 +2257,7 @@
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2054,15 +2453,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7:I8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2099,7 +2498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
@@ -2110,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>3</v>
       </c>

--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,15 +13,16 @@
     <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="proyecto" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="trabajo_autonomo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="trabajo_autonomo" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="examen" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="total" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
   <si>
     <t>Prácticas de laboratorio</t>
   </si>
@@ -109,12 +110,12 @@
     <t>Pruebas Parciales</t>
   </si>
   <si>
+    <t>ponderado</t>
+  </si>
+  <si>
     <t>Informes Escritos</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Investigación</t>
   </si>
   <si>
@@ -124,19 +125,19 @@
     <t>Respuestas</t>
   </si>
   <si>
-    <t>Analisis Respuesta</t>
+    <t>Análisis Respuesta</t>
   </si>
   <si>
     <t>Recomendación Respuesta</t>
   </si>
   <si>
-    <t>Indice</t>
+    <t>Índice</t>
   </si>
   <si>
     <t>Pie pagina</t>
   </si>
   <si>
-    <t>Punto restauracion</t>
+    <t>Punto restauración</t>
   </si>
   <si>
     <t>Antivirus</t>
@@ -158,6 +159,29 @@
   </si>
   <si>
     <t>Examen</t>
+  </si>
+  <si>
+    <t>Practicas
+Laboratorio</t>
+  </si>
+  <si>
+    <t>Pruebas
+Parciales</t>
+  </si>
+  <si>
+    <t>Informes
+Escritos</t>
+  </si>
+  <si>
+    <t>Investigacion
+Bibliografica</t>
+  </si>
+  <si>
+    <t>Proyecto Campo,
+Autonomo</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,6 +254,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,12 +270,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -277,7 +336,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +389,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -340,36 +431,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -441,7 +502,7 @@
   <dimension ref="B4:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,10 +987,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:G26"/>
+  <dimension ref="C5:H26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,6 +1019,9 @@
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
@@ -976,6 +1040,10 @@
         <f aca="false">AVERAGE(E7,F7)</f>
         <v>75</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">G7*2/10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
@@ -994,6 +1062,10 @@
         <f aca="false">AVERAGE(E8,F8)</f>
         <v>77.5</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">G8*2/10</f>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
@@ -1012,6 +1084,10 @@
         <f aca="false">AVERAGE(E9,F9)</f>
         <v>67.5</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">G9*2/10</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
@@ -1030,6 +1106,10 @@
         <f aca="false">AVERAGE(E10,F10)</f>
         <v>87.5</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">G10*2/10</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
@@ -1048,6 +1128,10 @@
         <f aca="false">AVERAGE(E11,F11)</f>
         <v>65</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">G11*2/10</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
@@ -1066,6 +1150,10 @@
         <f aca="false">AVERAGE(E12,F12)</f>
         <v>90</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">G12*2/10</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
@@ -1085,6 +1173,10 @@
         <f aca="false">AVERAGE(E13,F13)</f>
         <v>59.5</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">G13*2/10</f>
+        <v>11.9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
@@ -1103,6 +1195,10 @@
         <f aca="false">AVERAGE(E14,F14)</f>
         <v>82.5</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">G14*2/10</f>
+        <v>16.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
@@ -1121,6 +1217,10 @@
         <f aca="false">AVERAGE(E15,F15)</f>
         <v>75</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">G15*2/10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
@@ -1140,6 +1240,10 @@
         <f aca="false">AVERAGE(E16,F16)</f>
         <v>72</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">G16*2/10</f>
+        <v>14.4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
@@ -1159,6 +1263,10 @@
         <f aca="false">AVERAGE(E17,F17)</f>
         <v>72.5</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">G17*2/10</f>
+        <v>14.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
@@ -1177,6 +1285,10 @@
         <f aca="false">AVERAGE(E18,F18)</f>
         <v>75</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">G18*2/10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
@@ -1195,6 +1307,10 @@
         <f aca="false">AVERAGE(E19,F19)</f>
         <v>87.5</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">G19*2/10</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
@@ -1213,6 +1329,10 @@
         <f aca="false">AVERAGE(E20,F20)</f>
         <v>97.5</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">G20*2/10</f>
+        <v>19.5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
@@ -1232,6 +1352,10 @@
         <f aca="false">AVERAGE(E21,F21)</f>
         <v>78.25</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">G21*2/10</f>
+        <v>15.65</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
@@ -1250,6 +1374,10 @@
         <f aca="false">AVERAGE(E22,F22)</f>
         <v>72.5</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">G22*2/10</f>
+        <v>14.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
@@ -1268,6 +1396,10 @@
         <f aca="false">AVERAGE(E23,F23)</f>
         <v>75</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">G23*2/10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
@@ -1286,6 +1418,10 @@
         <f aca="false">AVERAGE(E24,F24)</f>
         <v>87.5</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">G24*2/10</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
@@ -1304,6 +1440,10 @@
         <f aca="false">AVERAGE(E25,F25)</f>
         <v>80</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">G25*2/10</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
@@ -1321,6 +1461,10 @@
       <c r="G26" s="9" t="n">
         <f aca="false">AVERAGE(E26,F26)</f>
         <v>65</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">G26*2/10</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1473,7 @@
   </mergeCells>
   <conditionalFormatting sqref="G7:G26">
     <cfRule type="top10" priority="2" aboveAverage="0" equalAverage="0" bottom="1" percent="0" rank="10" text="" dxfId="0"/>
-    <cfRule type="top10" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="10" text="" dxfId="1"/>
+    <cfRule type="top10" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="10" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1349,7 +1493,7 @@
   <dimension ref="D5:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1361,7 +1505,7 @@
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -1559,8 +1703,8 @@
       <c r="E23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>29</v>
+      <c r="F23" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1762,7 @@
   <dimension ref="C5:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,6 +1796,10 @@
       <c r="E7" s="0" t="n">
         <v>81</v>
       </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">E7*15/100</f>
+        <v>12.15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
@@ -1662,6 +1810,10 @@
       </c>
       <c r="E8" s="0" t="n">
         <v>90</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">E8*15/100</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,6 +1826,10 @@
       <c r="E9" s="0" t="n">
         <v>92</v>
       </c>
+      <c r="F9" s="7" t="n">
+        <f aca="false">E9*15/100</f>
+        <v>13.8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
@@ -1685,6 +1841,10 @@
       <c r="E10" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">E10*15/100</f>
+        <v>12.3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
@@ -1695,6 +1855,10 @@
       </c>
       <c r="E11" s="0" t="n">
         <v>93</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">E11*15/100</f>
+        <v>13.95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,6 +1871,10 @@
       <c r="E12" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">E12*15/100</f>
+        <v>14.25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
@@ -1718,6 +1886,10 @@
       <c r="E13" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">E13*15/100</f>
+        <v>12.3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
@@ -1729,6 +1901,10 @@
       <c r="E14" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">E14*15/100</f>
+        <v>13.95</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
@@ -1740,6 +1916,10 @@
       <c r="E15" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">E15*15/100</f>
+        <v>14.25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
@@ -1750,6 +1930,10 @@
       </c>
       <c r="E16" s="0" t="n">
         <v>92</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">E16*15/100</f>
+        <v>13.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,6 +1946,10 @@
       <c r="E17" s="0" t="n">
         <v>92</v>
       </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">E17*15/100</f>
+        <v>13.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
@@ -1774,6 +1962,10 @@
         <f aca="false">(81+95)/2</f>
         <v>88</v>
       </c>
+      <c r="F18" s="7" t="n">
+        <f aca="false">E18*15/100</f>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
@@ -1785,6 +1977,10 @@
       <c r="E19" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">E19*15/100</f>
+        <v>14.25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
@@ -1797,6 +1993,10 @@
         <f aca="false">(81+100)/2</f>
         <v>90.5</v>
       </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">E20*15/100</f>
+        <v>13.575</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
@@ -1808,6 +2008,10 @@
       <c r="E21" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">E21*15/100</f>
+        <v>13.95</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
@@ -1819,6 +2023,10 @@
       <c r="E22" s="0" t="n">
         <v>92</v>
       </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">E22*15/100</f>
+        <v>13.8</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
@@ -1830,6 +2038,10 @@
       <c r="E23" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">E23*15/100</f>
+        <v>12.3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
@@ -1841,6 +2053,10 @@
       <c r="E24" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">E24*15/100</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
@@ -1852,6 +2068,10 @@
       <c r="E25" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">E25*15/100</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
@@ -1862,6 +2082,10 @@
       </c>
       <c r="E26" s="0" t="n">
         <v>81</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">E26*15/100</f>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
@@ -1882,24 +2106,24 @@
   </sheetPr>
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.71255060728745"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.7165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,56 +2290,462 @@
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <f aca="false">SUM(C6:M6)</f>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <f aca="false">SUM(C7:M7)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <f aca="false">SUM(C8:M8)</f>
+        <v>15.9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <f aca="false">SUM(C9:M9)</f>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <f aca="false">SUM(C11:M11)</f>
+        <v>19.1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <f aca="false">SUM(C12:M12)</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <f aca="false">SUM(C13:M13)</f>
+        <v>19.4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <f aca="false">SUM(C14:M14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <f aca="false">SUM(C15:M15)</f>
+        <v>19.4</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <f aca="false">SUM(C16:M16)</f>
+        <v>15.2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
@@ -2131,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.5</v>
@@ -2156,7 +2786,7 @@
       </c>
       <c r="N17" s="9" t="n">
         <f aca="false">SUM(C17:M17)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,31 +2835,215 @@
       <c r="B19" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <f aca="false">SUM(C20:M20)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <f aca="false">SUM(C21:M21)</f>
+        <v>15.3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <f aca="false">SUM(C22:M22)</f>
+        <v>14.9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <f aca="false">SUM(C23:M23)</f>
+        <v>10.9</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2716,4 +3530,721 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G7</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <f aca="false">pruebas_parciales!H7</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <f aca="false">'informes escritos'!F7</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F7</f>
+        <v>12.15</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <f aca="false">proyecto!N4</f>
+        <v>18</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <f aca="false">examen!E6</f>
+        <v>17</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <f aca="false">SUM(B2:G2)</f>
+        <v>77.15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G8</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <f aca="false">pruebas_parciales!H8</f>
+        <v>15.5</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <f aca="false">'informes escritos'!F8</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F8</f>
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <f aca="false">proyecto!N5</f>
+        <v>16.9</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <f aca="false">examen!E7</f>
+        <v>18</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <f aca="false">SUM(B3:G3)</f>
+        <v>78.9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G9</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <f aca="false">pruebas_parciales!H9</f>
+        <v>13.5</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <f aca="false">'informes escritos'!F9</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F9</f>
+        <v>13.8</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <f aca="false">proyecto!N6</f>
+        <v>15.5</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <f aca="false">examen!E8</f>
+        <v>17</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G10</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <f aca="false">pruebas_parciales!H10</f>
+        <v>17.5</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <f aca="false">'informes escritos'!F10</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F10</f>
+        <v>12.3</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <f aca="false">proyecto!N7</f>
+        <v>19</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <f aca="false">examen!E9</f>
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <f aca="false">SUM(B5:G5)</f>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G11</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <f aca="false">pruebas_parciales!H11</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <f aca="false">'informes escritos'!F11</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F11</f>
+        <v>13.95</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <f aca="false">proyecto!N8</f>
+        <v>15.9</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <f aca="false">examen!E10</f>
+        <v>23</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <f aca="false">SUM(B6:G6)</f>
+        <v>80.85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G12</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <f aca="false">pruebas_parciales!H12</f>
+        <v>18</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <f aca="false">'informes escritos'!F12</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F12</f>
+        <v>14.25</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <f aca="false">proyecto!N9</f>
+        <v>15.5</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <f aca="false">examen!E11</f>
+        <v>17</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <f aca="false">SUM(B7:G7)</f>
+        <v>79.75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G13</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="n">
+        <f aca="false">pruebas_parciales!H13</f>
+        <v>11.9</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <f aca="false">'informes escritos'!F13</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F13</f>
+        <v>12.3</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <f aca="false">proyecto!N10</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <f aca="false">examen!E12</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <f aca="false">SUM(B8:G8)</f>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G14</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <f aca="false">pruebas_parciales!H14</f>
+        <v>16.5</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <f aca="false">'informes escritos'!F14</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F14</f>
+        <v>13.95</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <f aca="false">proyecto!N11</f>
+        <v>19.1</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <f aca="false">examen!E13</f>
+        <v>20</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <f aca="false">SUM(B9:G9)</f>
+        <v>84.55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G15</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C10" s="18" t="n">
+        <f aca="false">pruebas_parciales!H15</f>
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <f aca="false">'informes escritos'!F15</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F15</f>
+        <v>14.25</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <f aca="false">proyecto!N12</f>
+        <v>13.5</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <f aca="false">examen!E14</f>
+        <v>21</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <f aca="false">SUM(B10:G10)</f>
+        <v>77.0833333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G16</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="n">
+        <f aca="false">pruebas_parciales!H16</f>
+        <v>14.4</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <f aca="false">'informes escritos'!F16</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F16</f>
+        <v>13.8</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <f aca="false">proyecto!N13</f>
+        <v>19.4</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <f aca="false">examen!E15</f>
+        <v>17</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <f aca="false">SUM(B11:G11)</f>
+        <v>79.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G17</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <f aca="false">pruebas_parciales!H17</f>
+        <v>14.5</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <f aca="false">'informes escritos'!F17</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F17</f>
+        <v>13.8</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <f aca="false">proyecto!N14</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <f aca="false">examen!E16</f>
+        <v>19</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <f aca="false">SUM(B12:G12)</f>
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G18</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <f aca="false">pruebas_parciales!H18</f>
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <f aca="false">'informes escritos'!F18</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F18</f>
+        <v>13.2</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <f aca="false">proyecto!N15</f>
+        <v>19.4</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <f aca="false">examen!E17</f>
+        <v>20</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <f aca="false">SUM(B13:G13)</f>
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G19</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <f aca="false">pruebas_parciales!H19</f>
+        <v>17.5</v>
+      </c>
+      <c r="D14" s="18" t="n">
+        <f aca="false">'informes escritos'!F19</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F19</f>
+        <v>14.25</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <f aca="false">proyecto!N16</f>
+        <v>15.2</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <f aca="false">examen!E18</f>
+        <v>22</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <f aca="false">SUM(B14:G14)</f>
+        <v>83.95</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G20</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="18" t="n">
+        <f aca="false">pruebas_parciales!H20</f>
+        <v>19.5</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <f aca="false">'informes escritos'!F20</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F20</f>
+        <v>13.575</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <f aca="false">proyecto!N17</f>
+        <v>14.5</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <f aca="false">examen!E19</f>
+        <v>24</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <f aca="false">SUM(B15:G15)</f>
+        <v>86.575</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G21</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="n">
+        <f aca="false">pruebas_parciales!H21</f>
+        <v>15.65</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <f aca="false">'informes escritos'!F21</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F21</f>
+        <v>13.95</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <f aca="false">proyecto!N18</f>
+        <v>18.3</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <f aca="false">examen!E20</f>
+        <v>26</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <f aca="false">SUM(B16:G16)</f>
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G22</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <f aca="false">pruebas_parciales!H22</f>
+        <v>14.5</v>
+      </c>
+      <c r="D17" s="18" t="n">
+        <f aca="false">'informes escritos'!F22</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F22</f>
+        <v>13.8</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <f aca="false">proyecto!N19</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <f aca="false">examen!E21</f>
+        <v>21</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <f aca="false">SUM(B17:G17)</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G23</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <f aca="false">pruebas_parciales!H23</f>
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <f aca="false">'informes escritos'!F23</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F23</f>
+        <v>12.3</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <f aca="false">proyecto!N20</f>
+        <v>17</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <f aca="false">examen!E22</f>
+        <v>18</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <f aca="false">SUM(B18:G18)</f>
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G24</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <f aca="false">pruebas_parciales!H24</f>
+        <v>17.5</v>
+      </c>
+      <c r="D19" s="18" t="n">
+        <f aca="false">'informes escritos'!F24</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F24</f>
+        <v>13.5</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <f aca="false">proyecto!N21</f>
+        <v>15.3</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <f aca="false">examen!E23</f>
+        <v>15</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <f aca="false">SUM(B19:G19)</f>
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G25</f>
+        <v>10</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <f aca="false">pruebas_parciales!H25</f>
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <f aca="false">'informes escritos'!F25</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F25</f>
+        <v>13.5</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <f aca="false">proyecto!N22</f>
+        <v>14.9</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <f aca="false">examen!E24</f>
+        <v>22</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <f aca="false">SUM(B20:G20)</f>
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <f aca="false">practicas_laboratorio!G26</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <f aca="false">pruebas_parciales!H26</f>
+        <v>13</v>
+      </c>
+      <c r="D21" s="18" t="n">
+        <f aca="false">'informes escritos'!F26</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <f aca="false">investigacion_bibliografica!F26</f>
+        <v>12.15</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <f aca="false">proyecto!N23</f>
+        <v>10.9</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <f aca="false">examen!E25</f>
+        <v>15</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <f aca="false">SUM(B21:G21)</f>
+        <v>66.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_basica/b/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -217,12 +217,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -243,6 +237,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -331,7 +331,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,19 +341,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,7 +369,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,7 +385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,15 +393,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,68 +429,19 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -501,8 +452,8 @@
   </sheetPr>
   <dimension ref="B4:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,14 +681,14 @@
         <v>10</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">SUM(D15:F15)/3</f>
-        <v>8.33333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,8 +2057,8 @@
   </sheetPr>
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2115,7 +2066,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5708502024292"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0485829959514"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.7165991902834"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5708502024292"/>
@@ -2621,30 +2572,30 @@
         <v>19.4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2653,14 +2604,14 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="9" t="n">
         <f aca="false">SUM(C14:M14)</f>
-        <v>0</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,8 +3490,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3848,7 +3799,7 @@
       </c>
       <c r="B10" s="18" t="n">
         <f aca="false">practicas_laboratorio!G15</f>
-        <v>8.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="C10" s="18" t="n">
         <f aca="false">pruebas_parciales!H15</f>
@@ -3872,7 +3823,7 @@
       </c>
       <c r="H10" s="19" t="n">
         <f aca="false">SUM(B10:G10)</f>
-        <v>77.0833333333333</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,7 +3881,7 @@
       </c>
       <c r="F12" s="18" t="n">
         <f aca="false">proyecto!N14</f>
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="G12" s="18" t="n">
         <f aca="false">examen!E16</f>
@@ -3938,7 +3889,7 @@
       </c>
       <c r="H12" s="19" t="n">
         <f aca="false">SUM(B12:G12)</f>
-        <v>62.3</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
